--- a/dev/_downloads/9cf0c50576345a1a2bf3946b7ca51d94/Audit-ActiveLivesValEMD.xlsx
+++ b/dev/_downloads/9cf0c50576345a1a2bf3946b7ca51d94/Audit-ActiveLivesValEMD.xlsx
@@ -4288,12 +4288,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4380,12 +4380,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4564,12 +4564,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4656,12 +4656,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4932,12 +4932,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5024,12 +5024,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5116,12 +5116,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5208,12 +5208,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5300,12 +5300,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5392,12 +5392,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -5576,12 +5576,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5668,12 +5668,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5760,12 +5760,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5852,12 +5852,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -6220,12 +6220,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6496,12 +6496,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6588,12 +6588,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -6772,12 +6772,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6864,12 +6864,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -6956,12 +6956,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -7048,12 +7048,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -7140,12 +7140,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -7232,12 +7232,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -7324,12 +7324,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -7416,12 +7416,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -7508,12 +7508,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -7600,12 +7600,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -7692,12 +7692,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -7784,12 +7784,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -7876,12 +7876,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -7968,12 +7968,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -8060,12 +8060,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -8244,12 +8244,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -8428,12 +8428,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -8520,12 +8520,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -8704,12 +8704,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -8796,12 +8796,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -8888,12 +8888,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -8980,12 +8980,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -9072,12 +9072,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -9164,12 +9164,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -9256,12 +9256,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -9348,12 +9348,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -9440,12 +9440,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -9532,12 +9532,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -9624,12 +9624,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -9716,12 +9716,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -9808,12 +9808,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -9992,12 +9992,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -10084,12 +10084,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -10268,12 +10268,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -10360,12 +10360,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -10452,12 +10452,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -10544,12 +10544,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -10636,12 +10636,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -10912,12 +10912,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -11004,12 +11004,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -11096,12 +11096,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -11188,12 +11188,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -11280,12 +11280,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -11372,12 +11372,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -11464,12 +11464,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -11556,12 +11556,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -11648,12 +11648,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -11740,12 +11740,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -11832,12 +11832,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -12016,12 +12016,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -12108,12 +12108,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -12200,12 +12200,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -12292,12 +12292,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -12384,12 +12384,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -12476,12 +12476,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -12568,12 +12568,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -12660,12 +12660,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -12752,12 +12752,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -12844,12 +12844,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -12936,12 +12936,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -13028,12 +13028,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -13120,12 +13120,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -13212,12 +13212,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -13304,12 +13304,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -13396,12 +13396,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -13488,12 +13488,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -13580,12 +13580,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -13672,12 +13672,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -13764,12 +13764,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -13856,12 +13856,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -13948,12 +13948,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -14040,12 +14040,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -14132,12 +14132,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -14224,12 +14224,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -14316,12 +14316,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -14408,12 +14408,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -14500,12 +14500,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -14592,12 +14592,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -14684,12 +14684,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -14776,12 +14776,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -14868,12 +14868,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -14960,12 +14960,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -15052,12 +15052,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -15144,12 +15144,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -15328,12 +15328,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -15420,12 +15420,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -15512,12 +15512,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -15604,12 +15604,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -15696,12 +15696,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -15788,12 +15788,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -15880,12 +15880,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -15972,12 +15972,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -16064,12 +16064,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -16156,12 +16156,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -16248,12 +16248,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -16432,12 +16432,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -16524,12 +16524,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -16616,12 +16616,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -16708,12 +16708,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -16800,12 +16800,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -16892,12 +16892,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -16984,12 +16984,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -17076,12 +17076,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -17168,12 +17168,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -17260,12 +17260,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -17352,12 +17352,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -17444,12 +17444,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -17536,12 +17536,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -17628,12 +17628,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -17720,12 +17720,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -17812,12 +17812,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -17904,12 +17904,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -17996,12 +17996,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -18088,12 +18088,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -18180,12 +18180,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -18272,12 +18272,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -18364,12 +18364,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -18456,12 +18456,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -18548,12 +18548,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -18640,12 +18640,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -18732,12 +18732,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -18824,12 +18824,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -18916,12 +18916,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -19008,12 +19008,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -19100,12 +19100,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -19192,12 +19192,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -19284,12 +19284,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -19376,12 +19376,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -19468,12 +19468,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -19560,12 +19560,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -19652,12 +19652,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -19744,12 +19744,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -19836,12 +19836,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -19928,12 +19928,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -20020,12 +20020,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -20112,12 +20112,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -20204,12 +20204,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -20296,12 +20296,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -20388,12 +20388,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -20480,12 +20480,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -20572,12 +20572,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -20664,12 +20664,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -20848,12 +20848,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -21032,12 +21032,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -21124,12 +21124,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -21216,12 +21216,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -21308,12 +21308,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -21400,12 +21400,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -21492,12 +21492,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -21584,12 +21584,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -21676,12 +21676,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -21768,12 +21768,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -21860,12 +21860,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -21952,12 +21952,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -22044,12 +22044,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -22136,12 +22136,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -22228,12 +22228,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -22320,12 +22320,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -22412,12 +22412,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -22504,12 +22504,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -22596,12 +22596,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -22688,12 +22688,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -22780,12 +22780,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -22872,12 +22872,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -22964,12 +22964,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -23056,12 +23056,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -23148,12 +23148,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -23240,12 +23240,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -23507,12 +23507,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -23547,12 +23547,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -23587,12 +23587,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -23627,12 +23627,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -23667,12 +23667,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -23707,12 +23707,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -23747,12 +23747,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -23787,12 +23787,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -23827,12 +23827,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -24048,12 +24048,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -24140,12 +24140,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -24232,12 +24232,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -24324,12 +24324,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -24416,12 +24416,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -24508,12 +24508,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -24600,12 +24600,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -24692,12 +24692,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -24784,12 +24784,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -24876,12 +24876,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -24968,12 +24968,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -25060,12 +25060,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -25152,12 +25152,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -25244,12 +25244,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -25336,12 +25336,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -25428,12 +25428,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -25520,12 +25520,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -25612,12 +25612,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -25704,12 +25704,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -25796,12 +25796,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -25888,12 +25888,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -25980,12 +25980,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -26072,12 +26072,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -26164,12 +26164,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -26256,12 +26256,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -26348,12 +26348,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -26440,12 +26440,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -26532,12 +26532,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -26624,12 +26624,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -26716,12 +26716,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -26808,12 +26808,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -26900,12 +26900,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -26992,12 +26992,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -27084,12 +27084,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -27176,12 +27176,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -27268,12 +27268,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -27360,12 +27360,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -27452,12 +27452,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -27544,12 +27544,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -27636,12 +27636,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -27728,12 +27728,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -27820,12 +27820,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -27912,12 +27912,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -28004,12 +28004,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -28096,12 +28096,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -28188,12 +28188,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -28280,12 +28280,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -28372,12 +28372,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -28464,12 +28464,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -28556,12 +28556,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -28648,12 +28648,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -28740,12 +28740,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -28832,12 +28832,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -28924,12 +28924,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -29016,12 +29016,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -29108,12 +29108,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -29200,12 +29200,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -29292,12 +29292,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -29384,12 +29384,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -29476,12 +29476,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -29568,12 +29568,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -29660,12 +29660,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -29752,12 +29752,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -29844,12 +29844,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -29936,12 +29936,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -30028,12 +30028,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -30120,12 +30120,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -30212,12 +30212,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -30304,12 +30304,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -30396,12 +30396,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -30488,12 +30488,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -30580,12 +30580,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -30672,12 +30672,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -30764,12 +30764,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -30856,12 +30856,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -30948,12 +30948,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -31040,12 +31040,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -31132,12 +31132,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -31224,12 +31224,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -31316,12 +31316,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -31408,12 +31408,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -31500,12 +31500,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -31592,12 +31592,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -31684,12 +31684,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -31776,12 +31776,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -31868,12 +31868,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -31960,12 +31960,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -32052,12 +32052,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -32144,12 +32144,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -32236,12 +32236,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -32328,12 +32328,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -32420,12 +32420,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -32512,12 +32512,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -32604,12 +32604,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -32696,12 +32696,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -32788,12 +32788,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -32880,12 +32880,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -32972,12 +32972,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -33064,12 +33064,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -33156,12 +33156,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -33248,12 +33248,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -33340,12 +33340,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -33432,12 +33432,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -33524,12 +33524,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -33616,12 +33616,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -33708,12 +33708,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -33800,12 +33800,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -33892,12 +33892,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -33984,12 +33984,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -34076,12 +34076,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -34168,12 +34168,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -34260,12 +34260,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -34352,12 +34352,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -34444,12 +34444,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -34536,12 +34536,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -34628,12 +34628,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -34720,12 +34720,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -34812,12 +34812,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -34904,12 +34904,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -34996,12 +34996,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -35088,12 +35088,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -35180,12 +35180,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -35272,12 +35272,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -35364,12 +35364,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -35456,12 +35456,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -35548,12 +35548,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -35640,12 +35640,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -35732,12 +35732,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -35824,12 +35824,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -35916,12 +35916,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -36008,12 +36008,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -36100,12 +36100,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -36192,12 +36192,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -36284,12 +36284,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -36376,12 +36376,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -36468,12 +36468,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -36560,12 +36560,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -36652,12 +36652,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -36744,12 +36744,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -36836,12 +36836,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -36928,12 +36928,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -37020,12 +37020,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -37112,12 +37112,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -37204,12 +37204,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -37296,12 +37296,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -37388,12 +37388,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -37480,12 +37480,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -37572,12 +37572,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -37664,12 +37664,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -37756,12 +37756,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -37848,12 +37848,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -37940,12 +37940,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -38032,12 +38032,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -38124,12 +38124,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -38216,12 +38216,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -38308,12 +38308,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -38400,12 +38400,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -38492,12 +38492,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -38584,12 +38584,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -38676,12 +38676,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -38768,12 +38768,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -38860,12 +38860,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -38952,12 +38952,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -39044,12 +39044,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -39136,12 +39136,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -39228,12 +39228,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -39320,12 +39320,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -39412,12 +39412,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -39504,12 +39504,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -39596,12 +39596,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -39688,12 +39688,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -39780,12 +39780,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -39872,12 +39872,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -39964,12 +39964,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -40056,12 +40056,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -40148,12 +40148,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -40240,12 +40240,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -40332,12 +40332,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -40424,12 +40424,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -40516,12 +40516,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -40608,12 +40608,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -40700,12 +40700,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -40792,12 +40792,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -40884,12 +40884,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -40976,12 +40976,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -41068,12 +41068,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -41160,12 +41160,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -41252,12 +41252,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -41344,12 +41344,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -41436,12 +41436,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -41528,12 +41528,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -41620,12 +41620,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -41712,12 +41712,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -41804,12 +41804,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -41896,12 +41896,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -41988,12 +41988,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -42080,12 +42080,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -42172,12 +42172,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -42264,12 +42264,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -42356,12 +42356,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -42448,12 +42448,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -42540,12 +42540,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -42632,12 +42632,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -42724,12 +42724,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -42816,12 +42816,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -42908,12 +42908,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -43000,12 +43000,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -43139,12 +43139,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -43179,12 +43179,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -43219,12 +43219,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -43259,12 +43259,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -43299,12 +43299,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -43339,12 +43339,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -43379,12 +43379,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -43419,12 +43419,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -43459,12 +43459,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>393095ada0ab0bb19131401b0ecf4b9e3206e14d</t>
+          <t>19ee067715940d639b9bc9fa189177b042d194c5</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-02-08 11:57:40.420431</t>
+          <t>2021-02-09 10:03:04.212837</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">

--- a/dev/_downloads/9cf0c50576345a1a2bf3946b7ca51d94/Audit-ActiveLivesValEMD.xlsx
+++ b/dev/_downloads/9cf0c50576345a1a2bf3946b7ca51d94/Audit-ActiveLivesValEMD.xlsx
@@ -4283,17 +4283,17 @@
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4375,17 +4375,17 @@
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4467,17 +4467,17 @@
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4559,17 +4559,17 @@
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4651,17 +4651,17 @@
     <row r="19">
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4743,17 +4743,17 @@
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4835,17 +4835,17 @@
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4927,17 +4927,17 @@
     <row r="22">
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5019,17 +5019,17 @@
     <row r="23">
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5111,17 +5111,17 @@
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5203,17 +5203,17 @@
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5295,17 +5295,17 @@
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5387,17 +5387,17 @@
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5479,17 +5479,17 @@
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -5571,17 +5571,17 @@
     <row r="29">
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5663,17 +5663,17 @@
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5755,17 +5755,17 @@
     <row r="31">
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5847,17 +5847,17 @@
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5939,17 +5939,17 @@
     <row r="33">
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6031,17 +6031,17 @@
     <row r="34">
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -6123,17 +6123,17 @@
     <row r="35">
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -6215,17 +6215,17 @@
     <row r="36">
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6307,17 +6307,17 @@
     <row r="37">
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6399,17 +6399,17 @@
     <row r="38">
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6491,17 +6491,17 @@
     <row r="39">
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6583,17 +6583,17 @@
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6675,17 +6675,17 @@
     <row r="41">
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -6767,17 +6767,17 @@
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6859,17 +6859,17 @@
     <row r="43">
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -6951,17 +6951,17 @@
     <row r="44">
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -7043,17 +7043,17 @@
     <row r="45">
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -7135,17 +7135,17 @@
     <row r="46">
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -7227,17 +7227,17 @@
     <row r="47">
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -7319,17 +7319,17 @@
     <row r="48">
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -7411,17 +7411,17 @@
     <row r="49">
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -7503,17 +7503,17 @@
     <row r="50">
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -7595,17 +7595,17 @@
     <row r="51">
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -7687,17 +7687,17 @@
     <row r="52">
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -7779,17 +7779,17 @@
     <row r="53">
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -7871,17 +7871,17 @@
     <row r="54">
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -7963,17 +7963,17 @@
     <row r="55">
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -8055,17 +8055,17 @@
     <row r="56">
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -8147,17 +8147,17 @@
     <row r="57">
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -8239,17 +8239,17 @@
     <row r="58">
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -8331,17 +8331,17 @@
     <row r="59">
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -8423,17 +8423,17 @@
     <row r="60">
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -8515,17 +8515,17 @@
     <row r="61">
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -8607,17 +8607,17 @@
     <row r="62">
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -8699,17 +8699,17 @@
     <row r="63">
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -8791,17 +8791,17 @@
     <row r="64">
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -8883,17 +8883,17 @@
     <row r="65">
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -8975,17 +8975,17 @@
     <row r="66">
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -9067,17 +9067,17 @@
     <row r="67">
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -9159,17 +9159,17 @@
     <row r="68">
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -9251,17 +9251,17 @@
     <row r="69">
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -9343,17 +9343,17 @@
     <row r="70">
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -9435,17 +9435,17 @@
     <row r="71">
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -9527,17 +9527,17 @@
     <row r="72">
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -9619,17 +9619,17 @@
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -9711,17 +9711,17 @@
     <row r="74">
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -9803,17 +9803,17 @@
     <row r="75">
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -9895,17 +9895,17 @@
     <row r="76">
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -9987,17 +9987,17 @@
     <row r="77">
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -10079,17 +10079,17 @@
     <row r="78">
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -10171,17 +10171,17 @@
     <row r="79">
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -10263,17 +10263,17 @@
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -10355,17 +10355,17 @@
     <row r="81">
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -10447,17 +10447,17 @@
     <row r="82">
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -10539,17 +10539,17 @@
     <row r="83">
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -10631,17 +10631,17 @@
     <row r="84">
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -10723,17 +10723,17 @@
     <row r="85">
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -10815,17 +10815,17 @@
     <row r="86">
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -10907,17 +10907,17 @@
     <row r="87">
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -10999,17 +10999,17 @@
     <row r="88">
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -11091,17 +11091,17 @@
     <row r="89">
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -11183,17 +11183,17 @@
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -11275,17 +11275,17 @@
     <row r="91">
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -11367,17 +11367,17 @@
     <row r="92">
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -11459,17 +11459,17 @@
     <row r="93">
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -11551,17 +11551,17 @@
     <row r="94">
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -11643,17 +11643,17 @@
     <row r="95">
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -11735,17 +11735,17 @@
     <row r="96">
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -11827,17 +11827,17 @@
     <row r="97">
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -11919,17 +11919,17 @@
     <row r="98">
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -12011,17 +12011,17 @@
     <row r="99">
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -12103,17 +12103,17 @@
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -12195,17 +12195,17 @@
     <row r="101">
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -12287,17 +12287,17 @@
     <row r="102">
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -12379,17 +12379,17 @@
     <row r="103">
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -12471,17 +12471,17 @@
     <row r="104">
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -12563,17 +12563,17 @@
     <row r="105">
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -12655,17 +12655,17 @@
     <row r="106">
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -12747,17 +12747,17 @@
     <row r="107">
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -12839,17 +12839,17 @@
     <row r="108">
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -12931,17 +12931,17 @@
     <row r="109">
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -13023,17 +13023,17 @@
     <row r="110">
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -13115,17 +13115,17 @@
     <row r="111">
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -13207,17 +13207,17 @@
     <row r="112">
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -13299,17 +13299,17 @@
     <row r="113">
       <c r="D113" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -13391,17 +13391,17 @@
     <row r="114">
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -13483,17 +13483,17 @@
     <row r="115">
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -13575,17 +13575,17 @@
     <row r="116">
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -13667,17 +13667,17 @@
     <row r="117">
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -13759,17 +13759,17 @@
     <row r="118">
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -13851,17 +13851,17 @@
     <row r="119">
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -13943,17 +13943,17 @@
     <row r="120">
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -14035,17 +14035,17 @@
     <row r="121">
       <c r="D121" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -14127,17 +14127,17 @@
     <row r="122">
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -14219,17 +14219,17 @@
     <row r="123">
       <c r="D123" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -14311,17 +14311,17 @@
     <row r="124">
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -14764,17 +14764,17 @@
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -14804,17 +14804,17 @@
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -14844,17 +14844,17 @@
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -14884,17 +14884,17 @@
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -14924,17 +14924,17 @@
     <row r="19">
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -15145,17 +15145,17 @@
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -15237,17 +15237,17 @@
     <row r="4">
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -15329,17 +15329,17 @@
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -15421,17 +15421,17 @@
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -15513,17 +15513,17 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -15605,17 +15605,17 @@
     <row r="8">
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -15697,17 +15697,17 @@
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -15789,17 +15789,17 @@
     <row r="10">
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -15881,17 +15881,17 @@
     <row r="11">
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -15973,17 +15973,17 @@
     <row r="12">
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -16065,17 +16065,17 @@
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -16157,17 +16157,17 @@
     <row r="14">
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -16249,17 +16249,17 @@
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -16341,17 +16341,17 @@
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -16433,17 +16433,17 @@
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -16525,17 +16525,17 @@
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -16617,17 +16617,17 @@
     <row r="19">
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -16709,17 +16709,17 @@
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -16801,17 +16801,17 @@
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -16893,17 +16893,17 @@
     <row r="22">
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -16985,17 +16985,17 @@
     <row r="23">
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -17077,17 +17077,17 @@
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -17169,17 +17169,17 @@
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -17261,17 +17261,17 @@
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -17353,17 +17353,17 @@
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -17445,17 +17445,17 @@
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -17537,17 +17537,17 @@
     <row r="29">
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -17629,17 +17629,17 @@
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -17721,17 +17721,17 @@
     <row r="31">
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -17813,17 +17813,17 @@
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -17905,17 +17905,17 @@
     <row r="33">
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -17997,17 +17997,17 @@
     <row r="34">
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -18089,17 +18089,17 @@
     <row r="35">
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -18181,17 +18181,17 @@
     <row r="36">
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -18273,17 +18273,17 @@
     <row r="37">
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -18365,17 +18365,17 @@
     <row r="38">
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -18457,17 +18457,17 @@
     <row r="39">
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -18549,17 +18549,17 @@
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -18641,17 +18641,17 @@
     <row r="41">
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -18733,17 +18733,17 @@
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -18825,17 +18825,17 @@
     <row r="43">
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -18917,17 +18917,17 @@
     <row r="44">
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -19009,17 +19009,17 @@
     <row r="45">
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -19101,17 +19101,17 @@
     <row r="46">
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -19193,17 +19193,17 @@
     <row r="47">
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -19285,17 +19285,17 @@
     <row r="48">
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -19377,17 +19377,17 @@
     <row r="49">
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -19469,17 +19469,17 @@
     <row r="50">
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -19561,17 +19561,17 @@
     <row r="51">
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -19653,17 +19653,17 @@
     <row r="52">
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -19745,17 +19745,17 @@
     <row r="53">
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -19837,17 +19837,17 @@
     <row r="54">
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -19929,17 +19929,17 @@
     <row r="55">
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -20021,17 +20021,17 @@
     <row r="56">
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -20113,17 +20113,17 @@
     <row r="57">
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -20205,17 +20205,17 @@
     <row r="58">
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -20297,17 +20297,17 @@
     <row r="59">
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -20389,17 +20389,17 @@
     <row r="60">
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -20481,17 +20481,17 @@
     <row r="61">
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -20573,17 +20573,17 @@
     <row r="62">
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -20665,17 +20665,17 @@
     <row r="63">
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -20757,17 +20757,17 @@
     <row r="64">
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -20849,17 +20849,17 @@
     <row r="65">
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -20941,17 +20941,17 @@
     <row r="66">
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -21033,17 +21033,17 @@
     <row r="67">
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -21125,17 +21125,17 @@
     <row r="68">
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -21217,17 +21217,17 @@
     <row r="69">
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -21309,17 +21309,17 @@
     <row r="70">
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -21401,17 +21401,17 @@
     <row r="71">
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -21493,17 +21493,17 @@
     <row r="72">
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -21585,17 +21585,17 @@
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -21677,17 +21677,17 @@
     <row r="74">
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -21769,17 +21769,17 @@
     <row r="75">
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -21861,17 +21861,17 @@
     <row r="76">
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -21953,17 +21953,17 @@
     <row r="77">
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -22045,17 +22045,17 @@
     <row r="78">
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -22137,17 +22137,17 @@
     <row r="79">
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -22229,17 +22229,17 @@
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -22321,17 +22321,17 @@
     <row r="81">
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -22413,17 +22413,17 @@
     <row r="82">
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -22505,17 +22505,17 @@
     <row r="83">
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -22597,17 +22597,17 @@
     <row r="84">
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -22689,17 +22689,17 @@
     <row r="85">
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -22781,17 +22781,17 @@
     <row r="86">
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -22873,17 +22873,17 @@
     <row r="87">
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -22965,17 +22965,17 @@
     <row r="88">
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -23057,17 +23057,17 @@
     <row r="89">
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -23149,17 +23149,17 @@
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -23241,17 +23241,17 @@
     <row r="91">
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -23333,17 +23333,17 @@
     <row r="92">
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -23425,17 +23425,17 @@
     <row r="93">
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -23517,17 +23517,17 @@
     <row r="94">
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -23609,17 +23609,17 @@
     <row r="95">
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -23701,17 +23701,17 @@
     <row r="96">
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -23793,17 +23793,17 @@
     <row r="97">
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -23885,17 +23885,17 @@
     <row r="98">
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -23977,17 +23977,17 @@
     <row r="99">
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -24069,17 +24069,17 @@
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -24161,17 +24161,17 @@
     <row r="101">
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -24253,17 +24253,17 @@
     <row r="102">
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -24345,17 +24345,17 @@
     <row r="103">
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -24437,17 +24437,17 @@
     <row r="104">
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -24529,17 +24529,17 @@
     <row r="105">
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -24621,17 +24621,17 @@
     <row r="106">
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -24713,17 +24713,17 @@
     <row r="107">
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -24805,17 +24805,17 @@
     <row r="108">
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -24897,17 +24897,17 @@
     <row r="109">
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -24989,17 +24989,17 @@
     <row r="110">
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -25081,17 +25081,17 @@
     <row r="111">
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -25173,17 +25173,17 @@
     <row r="112">
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -25312,17 +25312,17 @@
     <row r="114">
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -25352,17 +25352,17 @@
     <row r="115">
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -25392,17 +25392,17 @@
     <row r="116">
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -25432,17 +25432,17 @@
     <row r="117">
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -25472,17 +25472,17 @@
     <row r="118">
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-02-25 13:12:16.989442</t>
+          <t>2021-02-26 11:44:07.183260</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">

--- a/dev/_downloads/9cf0c50576345a1a2bf3946b7ca51d94/Audit-ActiveLivesValEMD.xlsx
+++ b/dev/_downloads/9cf0c50576345a1a2bf3946b7ca51d94/Audit-ActiveLivesValEMD.xlsx
@@ -4388,12 +4388,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4480,12 +4480,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4664,12 +4664,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4848,12 +4848,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5124,12 +5124,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5308,12 +5308,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5400,12 +5400,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5584,12 +5584,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -5676,12 +5676,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5768,12 +5768,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5860,12 +5860,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -6044,12 +6044,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -6228,12 +6228,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -6320,12 +6320,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6412,12 +6412,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6504,12 +6504,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6780,12 +6780,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -6872,12 +6872,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -7056,12 +7056,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -7332,12 +7332,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -7424,12 +7424,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -7516,12 +7516,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -7608,12 +7608,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -7792,12 +7792,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -7884,12 +7884,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -7976,12 +7976,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -8068,12 +8068,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -8160,12 +8160,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -8252,12 +8252,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -8344,12 +8344,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -8436,12 +8436,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -8528,12 +8528,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -8620,12 +8620,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -8712,12 +8712,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -8896,12 +8896,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -8988,12 +8988,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -9080,12 +9080,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -9172,12 +9172,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -9264,12 +9264,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -9448,12 +9448,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -9540,12 +9540,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -9632,12 +9632,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -9724,12 +9724,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -9816,12 +9816,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -10000,12 +10000,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -10184,12 +10184,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -10276,12 +10276,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -10349,7 +10349,7 @@
         <v>67.96038111850596</v>
       </c>
       <c r="Y79" t="n">
-        <v>68.16664990568896</v>
+        <v>68.166649905689</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
@@ -10368,12 +10368,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -10438,10 +10438,10 @@
         <v>178.4022093807632</v>
       </c>
       <c r="X80" t="n">
-        <v>68.16664990568896</v>
+        <v>68.166649905689</v>
       </c>
       <c r="Y80" t="n">
-        <v>65.62294345524056</v>
+        <v>65.6229434552406</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
@@ -10460,12 +10460,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -10500,7 +10500,7 @@
         <v>0.9380892114647955</v>
       </c>
       <c r="N81" t="n">
-        <v>0.9361619059727876</v>
+        <v>0.9361619059727877</v>
       </c>
       <c r="O81" t="n">
         <v>0.9283330836655617</v>
@@ -10530,7 +10530,7 @@
         <v>145.5783376259537</v>
       </c>
       <c r="X81" t="n">
-        <v>65.62294345524056</v>
+        <v>65.6229434552406</v>
       </c>
       <c r="Y81" t="n">
         <v>60.01081606051257</v>
@@ -10552,12 +10552,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -10644,12 +10644,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -10736,12 +10736,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -10828,12 +10828,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -10920,12 +10920,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -10960,7 +10960,7 @@
         <v>0.9860697223786699</v>
       </c>
       <c r="N86" t="n">
-        <v>0.9849985154356716</v>
+        <v>0.9849985154356717</v>
       </c>
       <c r="O86" t="n">
         <v>0.9846990854645635</v>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -11104,12 +11104,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -11196,12 +11196,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -11288,12 +11288,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -11472,12 +11472,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -11564,12 +11564,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -11656,12 +11656,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -11748,12 +11748,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -11840,12 +11840,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -11932,12 +11932,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -12024,12 +12024,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -12116,12 +12116,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -12208,12 +12208,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -12300,12 +12300,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -12392,12 +12392,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -12484,12 +12484,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -12576,12 +12576,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -12616,7 +12616,7 @@
         <v>0.9332824258910403</v>
       </c>
       <c r="N104" t="n">
-        <v>0.9285240821986906</v>
+        <v>0.9285240821986908</v>
       </c>
       <c r="O104" t="n">
         <v>0.9271974244742307</v>
@@ -12668,12 +12668,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -12760,12 +12760,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -12852,12 +12852,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -12944,12 +12944,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -13036,12 +13036,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -13128,12 +13128,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -13220,12 +13220,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -13312,12 +13312,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -13404,12 +13404,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -13496,12 +13496,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -13536,7 +13536,7 @@
         <v>0.9860697223786699</v>
       </c>
       <c r="N114" t="n">
-        <v>0.9849985154356716</v>
+        <v>0.9849985154356717</v>
       </c>
       <c r="O114" t="n">
         <v>0.9846990854645635</v>
@@ -13588,12 +13588,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -13680,12 +13680,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -13772,12 +13772,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -13864,12 +13864,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -13956,12 +13956,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -14048,12 +14048,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -14140,12 +14140,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -14232,12 +14232,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -14324,12 +14324,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -14416,12 +14416,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -14508,12 +14508,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -14600,12 +14600,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -14692,12 +14692,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -14784,12 +14784,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -14876,12 +14876,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -14968,12 +14968,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -15060,12 +15060,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -15152,12 +15152,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -15192,7 +15192,7 @@
         <v>0.9332824258910403</v>
       </c>
       <c r="N132" t="n">
-        <v>0.9285240821986906</v>
+        <v>0.9285240821986908</v>
       </c>
       <c r="O132" t="n">
         <v>0.9271974244742307</v>
@@ -15244,12 +15244,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -15336,12 +15336,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -15428,12 +15428,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -15520,12 +15520,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -15612,12 +15612,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -15704,12 +15704,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -15796,12 +15796,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -15888,12 +15888,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -15980,12 +15980,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -16072,12 +16072,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -16164,12 +16164,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -16256,12 +16256,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -16348,12 +16348,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -16440,12 +16440,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -16532,12 +16532,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -16624,12 +16624,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -16716,12 +16716,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -16808,12 +16808,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -16900,12 +16900,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -16992,12 +16992,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -17084,12 +17084,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -17268,12 +17268,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -17360,12 +17360,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -17452,12 +17452,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -17544,12 +17544,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -17728,12 +17728,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -17820,12 +17820,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -17912,12 +17912,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -18004,12 +18004,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -18096,12 +18096,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -18188,12 +18188,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -18280,12 +18280,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -18372,12 +18372,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -18464,12 +18464,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -18556,12 +18556,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -18648,12 +18648,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -18740,12 +18740,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -18832,12 +18832,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -19016,12 +19016,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -19108,12 +19108,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -19200,12 +19200,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -19292,12 +19292,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -19384,12 +19384,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -19476,12 +19476,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -19568,12 +19568,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -19752,12 +19752,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -19844,12 +19844,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -19936,12 +19936,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -20028,12 +20028,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -20120,12 +20120,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -20212,12 +20212,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -20304,12 +20304,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -20396,12 +20396,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -20488,12 +20488,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -20580,12 +20580,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -20672,12 +20672,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -20764,12 +20764,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -20856,12 +20856,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -21040,12 +21040,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -21132,12 +21132,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -21224,12 +21224,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -21316,12 +21316,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -21408,12 +21408,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -21500,12 +21500,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -21592,12 +21592,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -21684,12 +21684,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -21776,12 +21776,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -21868,12 +21868,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -21960,12 +21960,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -22052,12 +22052,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -22144,12 +22144,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -22236,12 +22236,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -22328,12 +22328,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -22420,12 +22420,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -22512,12 +22512,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -22604,12 +22604,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -22696,12 +22696,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -22788,12 +22788,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -22880,12 +22880,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -22972,12 +22972,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -23064,12 +23064,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -23156,12 +23156,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -23248,12 +23248,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -23340,12 +23340,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -23607,12 +23607,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -23647,12 +23647,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -23687,12 +23687,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -23727,12 +23727,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -23767,12 +23767,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -23807,12 +23807,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -23847,12 +23847,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -23887,12 +23887,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -23927,12 +23927,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -24148,12 +24148,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -24240,12 +24240,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -24332,12 +24332,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -24424,12 +24424,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -24516,12 +24516,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -24608,12 +24608,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -24700,12 +24700,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -24792,12 +24792,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -24884,12 +24884,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -24976,12 +24976,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -25068,12 +25068,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -25160,12 +25160,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -25252,12 +25252,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -25344,12 +25344,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -25436,12 +25436,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -25528,12 +25528,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -25620,12 +25620,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -25712,12 +25712,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -25804,12 +25804,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -25896,12 +25896,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -25988,12 +25988,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -26080,12 +26080,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -26172,12 +26172,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -26264,12 +26264,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -26356,12 +26356,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -26448,12 +26448,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -26540,12 +26540,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -26632,12 +26632,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -26724,12 +26724,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -26816,12 +26816,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -26908,12 +26908,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -27000,12 +27000,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -27092,12 +27092,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -27184,12 +27184,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -27276,12 +27276,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -27368,12 +27368,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -27460,12 +27460,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -27552,12 +27552,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -27644,12 +27644,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -27736,12 +27736,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -27828,12 +27828,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -27920,12 +27920,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -28012,12 +28012,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -28104,12 +28104,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -28196,12 +28196,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -28288,12 +28288,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -28380,12 +28380,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -28472,12 +28472,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -28564,12 +28564,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -28656,12 +28656,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -28748,12 +28748,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -28840,12 +28840,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -28932,12 +28932,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -29024,12 +29024,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -29116,12 +29116,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -29208,12 +29208,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -29300,12 +29300,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -29392,12 +29392,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -29484,12 +29484,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -29576,12 +29576,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -29668,12 +29668,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -29760,12 +29760,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -29852,12 +29852,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -29944,12 +29944,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -30036,12 +30036,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -30109,7 +30109,7 @@
         <v>67.96038111850596</v>
       </c>
       <c r="Y67" t="n">
-        <v>68.16664990568896</v>
+        <v>68.166649905689</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
@@ -30128,12 +30128,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -30198,10 +30198,10 @@
         <v>178.4022093807632</v>
       </c>
       <c r="X68" t="n">
-        <v>68.16664990568896</v>
+        <v>68.166649905689</v>
       </c>
       <c r="Y68" t="n">
-        <v>65.62294345524056</v>
+        <v>65.6229434552406</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
@@ -30220,12 +30220,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -30260,7 +30260,7 @@
         <v>0.9380892114647955</v>
       </c>
       <c r="N69" t="n">
-        <v>0.9361619059727876</v>
+        <v>0.9361619059727877</v>
       </c>
       <c r="O69" t="n">
         <v>0.9283330836655617</v>
@@ -30290,7 +30290,7 @@
         <v>145.5783376259537</v>
       </c>
       <c r="X69" t="n">
-        <v>65.62294345524056</v>
+        <v>65.6229434552406</v>
       </c>
       <c r="Y69" t="n">
         <v>60.01081606051257</v>
@@ -30312,12 +30312,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -30404,12 +30404,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -30496,12 +30496,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -30588,12 +30588,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -30680,12 +30680,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -30720,7 +30720,7 @@
         <v>0.9860697223786699</v>
       </c>
       <c r="N74" t="n">
-        <v>0.9849985154356716</v>
+        <v>0.9849985154356717</v>
       </c>
       <c r="O74" t="n">
         <v>0.9846990854645635</v>
@@ -30772,12 +30772,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -30864,12 +30864,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -30956,12 +30956,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -31048,12 +31048,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -31140,12 +31140,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -31232,12 +31232,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -31324,12 +31324,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -31416,12 +31416,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -31508,12 +31508,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -31600,12 +31600,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -31692,12 +31692,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -31784,12 +31784,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -31876,12 +31876,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -31968,12 +31968,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -32060,12 +32060,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -32152,12 +32152,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -32244,12 +32244,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -32336,12 +32336,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -32376,7 +32376,7 @@
         <v>0.9332824258910403</v>
       </c>
       <c r="N92" t="n">
-        <v>0.9285240821986906</v>
+        <v>0.9285240821986908</v>
       </c>
       <c r="O92" t="n">
         <v>0.9271974244742307</v>
@@ -32428,12 +32428,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -32520,12 +32520,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -32612,12 +32612,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -32704,12 +32704,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -32796,12 +32796,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -32888,12 +32888,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -32980,12 +32980,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -33072,12 +33072,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -33164,12 +33164,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -33256,12 +33256,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -33296,7 +33296,7 @@
         <v>0.9860697223786699</v>
       </c>
       <c r="N102" t="n">
-        <v>0.9849985154356716</v>
+        <v>0.9849985154356717</v>
       </c>
       <c r="O102" t="n">
         <v>0.9846990854645635</v>
@@ -33348,12 +33348,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -33440,12 +33440,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -33532,12 +33532,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -33624,12 +33624,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -33716,12 +33716,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -33808,12 +33808,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -33900,12 +33900,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -33992,12 +33992,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -34084,12 +34084,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -34176,12 +34176,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -34268,12 +34268,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -34360,12 +34360,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -34452,12 +34452,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -34544,12 +34544,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -34636,12 +34636,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -34728,12 +34728,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -34820,12 +34820,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -34912,12 +34912,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -34952,7 +34952,7 @@
         <v>0.9332824258910403</v>
       </c>
       <c r="N120" t="n">
-        <v>0.9285240821986906</v>
+        <v>0.9285240821986908</v>
       </c>
       <c r="O120" t="n">
         <v>0.9271974244742307</v>
@@ -35004,12 +35004,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -35096,12 +35096,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -35188,12 +35188,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -35280,12 +35280,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -35372,12 +35372,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -35464,12 +35464,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -35556,12 +35556,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -35648,12 +35648,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -35740,12 +35740,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -35832,12 +35832,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -35924,12 +35924,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -36016,12 +36016,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -36108,12 +36108,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -36200,12 +36200,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -36292,12 +36292,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -36384,12 +36384,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -36476,12 +36476,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -36568,12 +36568,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -36660,12 +36660,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -36752,12 +36752,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -36844,12 +36844,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -36936,12 +36936,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -37028,12 +37028,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -37120,12 +37120,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -37212,12 +37212,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -37304,12 +37304,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -37396,12 +37396,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -37488,12 +37488,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -37580,12 +37580,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -37672,12 +37672,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -37764,12 +37764,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -37856,12 +37856,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -37948,12 +37948,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -38040,12 +38040,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -38132,12 +38132,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -38224,12 +38224,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -38316,12 +38316,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -38408,12 +38408,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -38500,12 +38500,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -38592,12 +38592,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -38684,12 +38684,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -38776,12 +38776,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -38868,12 +38868,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -38960,12 +38960,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -39052,12 +39052,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -39144,12 +39144,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -39236,12 +39236,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -39328,12 +39328,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -39420,12 +39420,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -39512,12 +39512,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -39604,12 +39604,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -39696,12 +39696,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -39788,12 +39788,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -39880,12 +39880,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -39972,12 +39972,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -40064,12 +40064,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -40156,12 +40156,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -40248,12 +40248,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -40340,12 +40340,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -40432,12 +40432,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -40524,12 +40524,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -40616,12 +40616,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -40708,12 +40708,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -40800,12 +40800,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -40892,12 +40892,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -40984,12 +40984,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -41076,12 +41076,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -41168,12 +41168,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -41260,12 +41260,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -41352,12 +41352,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -41444,12 +41444,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -41536,12 +41536,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -41628,12 +41628,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -41720,12 +41720,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -41812,12 +41812,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -41904,12 +41904,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -41996,12 +41996,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -42088,12 +42088,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -42180,12 +42180,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -42272,12 +42272,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -42364,12 +42364,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -42456,12 +42456,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -42548,12 +42548,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -42640,12 +42640,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -42732,12 +42732,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -42824,12 +42824,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -42916,12 +42916,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -43008,12 +43008,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -43100,12 +43100,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -43239,12 +43239,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -43279,12 +43279,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -43319,12 +43319,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -43359,12 +43359,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -43399,12 +43399,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -43439,12 +43439,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -43479,12 +43479,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -43519,12 +43519,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -43559,12 +43559,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-03-25 11:12:01.268901</t>
+          <t>2021-03-25 11:20:53.887219</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">

--- a/dev/_downloads/9cf0c50576345a1a2bf3946b7ca51d94/Audit-ActiveLivesValEMD.xlsx
+++ b/dev/_downloads/9cf0c50576345a1a2bf3946b7ca51d94/Audit-ActiveLivesValEMD.xlsx
@@ -4388,12 +4388,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4480,12 +4480,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4664,12 +4664,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4848,12 +4848,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5124,12 +5124,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5308,12 +5308,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5400,12 +5400,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5584,12 +5584,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -5676,12 +5676,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5768,12 +5768,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5860,12 +5860,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -6044,12 +6044,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -6228,12 +6228,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -6320,12 +6320,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6412,12 +6412,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6504,12 +6504,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6780,12 +6780,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -6872,12 +6872,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -7056,12 +7056,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -7332,12 +7332,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -7424,12 +7424,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -7516,12 +7516,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -7608,12 +7608,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -7792,12 +7792,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -7884,12 +7884,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -7976,12 +7976,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -8068,12 +8068,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -8160,12 +8160,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -8252,12 +8252,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -8344,12 +8344,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -8436,12 +8436,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -8528,12 +8528,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -8620,12 +8620,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -8712,12 +8712,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -8896,12 +8896,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -8988,12 +8988,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -9080,12 +9080,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -9172,12 +9172,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -9264,12 +9264,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -9448,12 +9448,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -9540,12 +9540,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -9632,12 +9632,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -9724,12 +9724,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -9816,12 +9816,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -10000,12 +10000,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -10184,12 +10184,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -10276,12 +10276,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -10349,7 +10349,7 @@
         <v>67.96038111850596</v>
       </c>
       <c r="Y79" t="n">
-        <v>68.166649905689</v>
+        <v>68.16664990568896</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
@@ -10368,12 +10368,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -10438,10 +10438,10 @@
         <v>178.4022093807632</v>
       </c>
       <c r="X80" t="n">
-        <v>68.166649905689</v>
+        <v>68.16664990568896</v>
       </c>
       <c r="Y80" t="n">
-        <v>65.6229434552406</v>
+        <v>65.62294345524056</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
@@ -10460,12 +10460,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -10500,7 +10500,7 @@
         <v>0.9380892114647955</v>
       </c>
       <c r="N81" t="n">
-        <v>0.9361619059727877</v>
+        <v>0.9361619059727876</v>
       </c>
       <c r="O81" t="n">
         <v>0.9283330836655617</v>
@@ -10530,7 +10530,7 @@
         <v>145.5783376259537</v>
       </c>
       <c r="X81" t="n">
-        <v>65.6229434552406</v>
+        <v>65.62294345524056</v>
       </c>
       <c r="Y81" t="n">
         <v>60.01081606051257</v>
@@ -10552,12 +10552,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -10644,12 +10644,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -10736,12 +10736,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -10828,12 +10828,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -10920,12 +10920,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -10960,7 +10960,7 @@
         <v>0.9860697223786699</v>
       </c>
       <c r="N86" t="n">
-        <v>0.9849985154356717</v>
+        <v>0.9849985154356716</v>
       </c>
       <c r="O86" t="n">
         <v>0.9846990854645635</v>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -11104,12 +11104,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -11196,12 +11196,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -11288,12 +11288,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -11472,12 +11472,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -11564,12 +11564,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -11656,12 +11656,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -11748,12 +11748,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -11840,12 +11840,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -11932,12 +11932,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -12024,12 +12024,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -12116,12 +12116,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -12208,12 +12208,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -12300,12 +12300,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -12392,12 +12392,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -12484,12 +12484,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -12576,12 +12576,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -12616,7 +12616,7 @@
         <v>0.9332824258910403</v>
       </c>
       <c r="N104" t="n">
-        <v>0.9285240821986908</v>
+        <v>0.9285240821986906</v>
       </c>
       <c r="O104" t="n">
         <v>0.9271974244742307</v>
@@ -12668,12 +12668,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -12760,12 +12760,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -12852,12 +12852,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -12944,12 +12944,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -13036,12 +13036,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -13128,12 +13128,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -13220,12 +13220,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -13312,12 +13312,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -13404,12 +13404,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -13496,12 +13496,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -13536,7 +13536,7 @@
         <v>0.9860697223786699</v>
       </c>
       <c r="N114" t="n">
-        <v>0.9849985154356717</v>
+        <v>0.9849985154356716</v>
       </c>
       <c r="O114" t="n">
         <v>0.9846990854645635</v>
@@ -13588,12 +13588,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -13680,12 +13680,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -13772,12 +13772,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -13864,12 +13864,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -13956,12 +13956,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -14048,12 +14048,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -14140,12 +14140,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -14232,12 +14232,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -14324,12 +14324,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -14416,12 +14416,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -14508,12 +14508,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -14600,12 +14600,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -14692,12 +14692,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -14784,12 +14784,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -14876,12 +14876,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -14968,12 +14968,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -15060,12 +15060,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -15152,12 +15152,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -15192,7 +15192,7 @@
         <v>0.9332824258910403</v>
       </c>
       <c r="N132" t="n">
-        <v>0.9285240821986908</v>
+        <v>0.9285240821986906</v>
       </c>
       <c r="O132" t="n">
         <v>0.9271974244742307</v>
@@ -15244,12 +15244,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -15336,12 +15336,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -15428,12 +15428,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -15520,12 +15520,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -15612,12 +15612,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -15704,12 +15704,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -15796,12 +15796,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -15888,12 +15888,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -15980,12 +15980,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -16072,12 +16072,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -16164,12 +16164,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -16256,12 +16256,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -16348,12 +16348,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -16440,12 +16440,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -16532,12 +16532,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -16624,12 +16624,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -16716,12 +16716,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -16808,12 +16808,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -16900,12 +16900,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -16992,12 +16992,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -17084,12 +17084,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -17268,12 +17268,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -17360,12 +17360,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -17452,12 +17452,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -17544,12 +17544,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -17728,12 +17728,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -17820,12 +17820,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -17912,12 +17912,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -18004,12 +18004,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -18096,12 +18096,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -18188,12 +18188,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -18280,12 +18280,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -18372,12 +18372,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -18464,12 +18464,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -18556,12 +18556,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -18648,12 +18648,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -18740,12 +18740,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -18832,12 +18832,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -19016,12 +19016,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -19108,12 +19108,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -19200,12 +19200,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -19292,12 +19292,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -19384,12 +19384,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -19476,12 +19476,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -19568,12 +19568,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -19752,12 +19752,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -19844,12 +19844,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -19936,12 +19936,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -20028,12 +20028,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -20120,12 +20120,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -20212,12 +20212,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -20304,12 +20304,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -20396,12 +20396,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -20488,12 +20488,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -20580,12 +20580,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -20672,12 +20672,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -20764,12 +20764,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -20856,12 +20856,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -21040,12 +21040,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -21132,12 +21132,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -21224,12 +21224,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -21316,12 +21316,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -21408,12 +21408,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -21500,12 +21500,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -21592,12 +21592,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -21684,12 +21684,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -21776,12 +21776,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -21868,12 +21868,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -21960,12 +21960,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -22052,12 +22052,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -22144,12 +22144,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -22236,12 +22236,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -22328,12 +22328,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -22420,12 +22420,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -22512,12 +22512,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -22604,12 +22604,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -22696,12 +22696,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -22788,12 +22788,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -22880,12 +22880,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -22972,12 +22972,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -23064,12 +23064,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -23156,12 +23156,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -23248,12 +23248,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -23340,12 +23340,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -23607,12 +23607,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -23647,12 +23647,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -23687,12 +23687,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -23727,12 +23727,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -23767,12 +23767,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -23807,12 +23807,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -23847,12 +23847,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -23887,12 +23887,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -23927,12 +23927,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -24148,12 +24148,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -24240,12 +24240,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -24332,12 +24332,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -24424,12 +24424,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -24516,12 +24516,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -24608,12 +24608,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -24700,12 +24700,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -24792,12 +24792,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -24884,12 +24884,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -24976,12 +24976,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -25068,12 +25068,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -25160,12 +25160,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -25252,12 +25252,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -25344,12 +25344,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -25436,12 +25436,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -25528,12 +25528,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -25620,12 +25620,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -25712,12 +25712,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -25804,12 +25804,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -25896,12 +25896,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -25988,12 +25988,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -26080,12 +26080,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -26172,12 +26172,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -26264,12 +26264,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -26356,12 +26356,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -26448,12 +26448,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -26540,12 +26540,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -26632,12 +26632,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -26724,12 +26724,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -26816,12 +26816,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -26908,12 +26908,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -27000,12 +27000,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -27092,12 +27092,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -27184,12 +27184,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -27276,12 +27276,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -27368,12 +27368,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -27460,12 +27460,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -27552,12 +27552,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -27644,12 +27644,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -27736,12 +27736,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -27828,12 +27828,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -27920,12 +27920,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -28012,12 +28012,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -28104,12 +28104,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -28196,12 +28196,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -28288,12 +28288,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -28380,12 +28380,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -28472,12 +28472,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -28564,12 +28564,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -28656,12 +28656,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -28748,12 +28748,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -28840,12 +28840,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -28932,12 +28932,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -29024,12 +29024,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -29116,12 +29116,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -29208,12 +29208,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -29300,12 +29300,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -29392,12 +29392,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -29484,12 +29484,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -29576,12 +29576,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -29668,12 +29668,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -29760,12 +29760,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -29852,12 +29852,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -29944,12 +29944,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -30036,12 +30036,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -30109,7 +30109,7 @@
         <v>67.96038111850596</v>
       </c>
       <c r="Y67" t="n">
-        <v>68.166649905689</v>
+        <v>68.16664990568896</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
@@ -30128,12 +30128,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -30198,10 +30198,10 @@
         <v>178.4022093807632</v>
       </c>
       <c r="X68" t="n">
-        <v>68.166649905689</v>
+        <v>68.16664990568896</v>
       </c>
       <c r="Y68" t="n">
-        <v>65.6229434552406</v>
+        <v>65.62294345524056</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
@@ -30220,12 +30220,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -30260,7 +30260,7 @@
         <v>0.9380892114647955</v>
       </c>
       <c r="N69" t="n">
-        <v>0.9361619059727877</v>
+        <v>0.9361619059727876</v>
       </c>
       <c r="O69" t="n">
         <v>0.9283330836655617</v>
@@ -30290,7 +30290,7 @@
         <v>145.5783376259537</v>
       </c>
       <c r="X69" t="n">
-        <v>65.6229434552406</v>
+        <v>65.62294345524056</v>
       </c>
       <c r="Y69" t="n">
         <v>60.01081606051257</v>
@@ -30312,12 +30312,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -30404,12 +30404,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -30496,12 +30496,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -30588,12 +30588,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -30680,12 +30680,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -30720,7 +30720,7 @@
         <v>0.9860697223786699</v>
       </c>
       <c r="N74" t="n">
-        <v>0.9849985154356717</v>
+        <v>0.9849985154356716</v>
       </c>
       <c r="O74" t="n">
         <v>0.9846990854645635</v>
@@ -30772,12 +30772,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -30864,12 +30864,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -30956,12 +30956,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -31048,12 +31048,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -31140,12 +31140,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -31232,12 +31232,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -31324,12 +31324,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -31416,12 +31416,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -31508,12 +31508,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -31600,12 +31600,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -31692,12 +31692,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -31784,12 +31784,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -31876,12 +31876,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -31968,12 +31968,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -32060,12 +32060,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -32152,12 +32152,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -32244,12 +32244,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -32336,12 +32336,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -32376,7 +32376,7 @@
         <v>0.9332824258910403</v>
       </c>
       <c r="N92" t="n">
-        <v>0.9285240821986908</v>
+        <v>0.9285240821986906</v>
       </c>
       <c r="O92" t="n">
         <v>0.9271974244742307</v>
@@ -32428,12 +32428,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -32520,12 +32520,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -32612,12 +32612,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -32704,12 +32704,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -32796,12 +32796,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -32888,12 +32888,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -32980,12 +32980,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -33072,12 +33072,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -33164,12 +33164,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -33256,12 +33256,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -33296,7 +33296,7 @@
         <v>0.9860697223786699</v>
       </c>
       <c r="N102" t="n">
-        <v>0.9849985154356717</v>
+        <v>0.9849985154356716</v>
       </c>
       <c r="O102" t="n">
         <v>0.9846990854645635</v>
@@ -33348,12 +33348,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -33440,12 +33440,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -33532,12 +33532,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -33624,12 +33624,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -33716,12 +33716,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -33808,12 +33808,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -33900,12 +33900,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -33992,12 +33992,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -34084,12 +34084,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -34176,12 +34176,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -34268,12 +34268,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -34360,12 +34360,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -34452,12 +34452,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -34544,12 +34544,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -34636,12 +34636,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -34728,12 +34728,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -34820,12 +34820,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -34912,12 +34912,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -34952,7 +34952,7 @@
         <v>0.9332824258910403</v>
       </c>
       <c r="N120" t="n">
-        <v>0.9285240821986908</v>
+        <v>0.9285240821986906</v>
       </c>
       <c r="O120" t="n">
         <v>0.9271974244742307</v>
@@ -35004,12 +35004,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -35096,12 +35096,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -35188,12 +35188,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -35280,12 +35280,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -35372,12 +35372,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -35464,12 +35464,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -35556,12 +35556,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -35648,12 +35648,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -35740,12 +35740,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -35832,12 +35832,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -35924,12 +35924,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -36016,12 +36016,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -36108,12 +36108,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -36200,12 +36200,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -36292,12 +36292,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -36384,12 +36384,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -36476,12 +36476,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -36568,12 +36568,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -36660,12 +36660,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -36752,12 +36752,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -36844,12 +36844,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -36936,12 +36936,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -37028,12 +37028,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -37120,12 +37120,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -37212,12 +37212,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -37304,12 +37304,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -37396,12 +37396,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -37488,12 +37488,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -37580,12 +37580,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -37672,12 +37672,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -37764,12 +37764,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -37856,12 +37856,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -37948,12 +37948,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -38040,12 +38040,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -38132,12 +38132,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -38224,12 +38224,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -38316,12 +38316,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -38408,12 +38408,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -38500,12 +38500,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -38592,12 +38592,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -38684,12 +38684,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -38776,12 +38776,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -38868,12 +38868,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -38960,12 +38960,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -39052,12 +39052,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -39144,12 +39144,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -39236,12 +39236,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -39328,12 +39328,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -39420,12 +39420,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -39512,12 +39512,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -39604,12 +39604,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -39696,12 +39696,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -39788,12 +39788,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -39880,12 +39880,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -39972,12 +39972,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -40064,12 +40064,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -40156,12 +40156,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -40248,12 +40248,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -40340,12 +40340,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -40432,12 +40432,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -40524,12 +40524,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -40616,12 +40616,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -40708,12 +40708,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -40800,12 +40800,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -40892,12 +40892,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -40984,12 +40984,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -41076,12 +41076,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -41168,12 +41168,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -41260,12 +41260,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -41352,12 +41352,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -41444,12 +41444,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -41536,12 +41536,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -41628,12 +41628,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -41720,12 +41720,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -41812,12 +41812,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -41904,12 +41904,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -41996,12 +41996,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -42088,12 +42088,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -42180,12 +42180,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -42272,12 +42272,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -42364,12 +42364,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -42456,12 +42456,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -42548,12 +42548,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -42640,12 +42640,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -42732,12 +42732,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -42824,12 +42824,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -42916,12 +42916,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -43008,12 +43008,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -43100,12 +43100,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -43239,12 +43239,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -43279,12 +43279,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -43319,12 +43319,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -43359,12 +43359,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -43399,12 +43399,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -43439,12 +43439,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -43479,12 +43479,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -43519,12 +43519,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -43559,12 +43559,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-03-25 11:20:53.887219</t>
+          <t>2021-03-25 11:26:14.112320</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
